--- a/Zanin_FT24_Compliance_R1.xlsx
+++ b/Zanin_FT24_Compliance_R1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="271">
   <si>
     <r>
       <rPr>
@@ -734,7 +734,7 @@
 Please confirm that you have addressed the significance and benefits of your research.</t>
   </si>
   <si>
-    <t xml:space="preserve">Manual line breaks are removed. TO THOMAS: confirm that significance and benefit was addressed.</t>
+    <t xml:space="preserve">Manual line breaks are removed. Significance and benefit is addressed.</t>
   </si>
   <si>
     <r>
@@ -916,9 +916,6 @@
     <t xml:space="preserve">Please confirm that your NIT statement has been reviewed by at least two people who are not in the direct field of research of this project, to ensure it is a reasonable lay statement.</t>
   </si>
   <si>
-    <t xml:space="preserve">TO THOMAS: confirm that A5 is reasonable.</t>
-  </si>
-  <si>
     <t xml:space="preserve">PART B - Participant Details including ROPE</t>
   </si>
   <si>
@@ -1226,7 +1223,7 @@
     <t xml:space="preserve">If you do not have any non-ARC grants/funding to declare, please simply enter "N/A" in the first row of the table.</t>
   </si>
   <si>
-    <t xml:space="preserve">TO THOMAS: (a) do they mean second row? (b) should I put N/A in every cell of the second row? </t>
+    <t xml:space="preserve">Corrected.</t>
   </si>
   <si>
     <t xml:space="preserve">B5. ROPE - Current and previous appointment(s)/position(s) – during the past 10 years</t>
@@ -1400,6 +1397,9 @@
     <t xml:space="preserve">Please note that the ROPE statement has changed from previous years. Recommend reviewing pp. 6-7 of RSO's guidance document "ARC FT24_RSO Strategic Advice to Applicants_final", attached to my email.</t>
   </si>
   <si>
+    <t xml:space="preserve">Noted.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t xml:space="preserve">To be finalised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only minor edits.</t>
   </si>
   <si>
     <t xml:space="preserve">Briefly set the scene – state what the field of research is and the major components of the project
@@ -1610,7 +1613,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Moved comments on the 10 best publications from B7 to B10. TO THOMAS:  have a look.</t>
+    <t xml:space="preserve">Moved comments on the 10 best publications from B7 to B10.</t>
   </si>
   <si>
     <t xml:space="preserve">Part I: The information should help assessors understand the context of your academic research achievements as outlined above but not repeat them. It is helpful to include the importance/esteem of specific journals in your field; specific indicators of recognition within your field such as first authorship/citations, or the significance of non-traditional research outputs.  </t>
@@ -2602,6 +2605,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Have mailed RSO to confirm they will send final C2 letter to RGC.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PART D - Project Cost</t>
   </si>
   <si>
@@ -2867,6 +2873,9 @@
     <t xml:space="preserve">(HoS/Faculty approval of Cash commitment to be confirmed once C2 finalised by RSO.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Pending C2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do not build indexation into the amounts. Payments from ARC will be automatically indexed at time of payment each year of the project.</t>
   </si>
   <si>
@@ -2921,6 +2930,9 @@
   </si>
   <si>
     <t xml:space="preserve">The $10,000 commitment from UNSW should be entered into the relevant budget category, not here at personnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected. Moved to “travel”.</t>
   </si>
   <si>
     <t xml:space="preserve">Personnel</t>
@@ -3674,6 +3686,9 @@
     <t xml:space="preserve">Please remove this section if only salary is requested for this section.</t>
   </si>
   <si>
+    <t xml:space="preserve">Deleted</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -3888,6 +3903,9 @@
 * Change this heading to "Travel", as you state that the funding will be used for travel.
 * Please provide here in D3 a breakdown of what this funding will be used for.
 * Under this "Personnel" heading, Please state your time (FTE) commitment to this project (min 0.8 FTE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected. For personnel, 0.4 FTE must be dedicated to the existing Discovery project. </t>
   </si>
   <si>
     <t xml:space="preserve">UNSW $10k cash for travel to be moved here.</t>
@@ -4288,6 +4306,9 @@
   </si>
   <si>
     <t xml:space="preserve">To be obtained by RGC once application is finalised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending finalisation.</t>
   </si>
   <si>
     <t xml:space="preserve">PVCRI advice</t>
@@ -5595,11 +5616,11 @@
   </sheetPr>
   <dimension ref="A1:CB1081"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="95"/>
@@ -6663,7 +6684,9 @@
       <c r="D19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="52" t="s">
         <v>54</v>
       </c>
@@ -6750,7 +6773,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="43"/>
@@ -6830,7 +6853,7 @@
     </row>
     <row r="21" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6922,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="54" t="s">
         <v>9</v>
@@ -6930,22 +6953,22 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="58" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>60</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="37"/>
       <c r="F23" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -6957,7 +6980,7 @@
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44"/>
       <c r="B25" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="39"/>
@@ -6966,10 +6989,10 @@
     </row>
     <row r="26" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="58" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>65</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="39"/>
@@ -6978,36 +7001,36 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="58" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>67</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="39"/>
       <c r="E27" s="37"/>
       <c r="F27" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>70</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="39"/>
       <c r="E28" s="37"/>
       <c r="F28" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="62"/>
       <c r="B29" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="39"/>
@@ -7017,23 +7040,23 @@
     <row r="30" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="62"/>
       <c r="B30" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="F30" s="59"/>
     </row>
     <row r="31" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="66" t="s">
         <v>76</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>77</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="39"/>
@@ -7042,16 +7065,16 @@
     </row>
     <row r="32" s="17" customFormat="true" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>79</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="39"/>
       <c r="E32" s="37"/>
       <c r="F32" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
@@ -7130,18 +7153,20 @@
     </row>
     <row r="33" s="17" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="58" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>82</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="46" t="s">
         <v>83</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="46" t="s">
-        <v>84</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -7220,29 +7245,31 @@
     </row>
     <row r="34" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>85</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>86</v>
       </c>
       <c r="C34" s="70"/>
       <c r="D34" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="37"/>
       <c r="F34" s="59"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="44"/>
       <c r="B35" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="72"/>
       <c r="D35" s="39"/>
       <c r="E35" s="37"/>
       <c r="F35" s="46"/>
     </row>
-    <row r="36" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="44"/>
       <c r="B36" s="73" t="s">
         <v>88</v>
@@ -7251,31 +7278,33 @@
       <c r="D36" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="F36" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="44"/>
       <c r="B37" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="39" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" s="74"/>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="39"/>
@@ -7284,40 +7313,40 @@
     </row>
     <row r="39" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="30"/>
       <c r="E40" s="37"/>
       <c r="F40" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="78"/>
       <c r="B41" s="58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="39"/>
@@ -7327,7 +7356,7 @@
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="78"/>
       <c r="B42" s="80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="39"/>
@@ -7337,21 +7366,21 @@
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="78"/>
       <c r="B43" s="58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="78"/>
       <c r="B44" s="58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="39"/>
@@ -7361,7 +7390,7 @@
     <row r="45" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="78"/>
       <c r="B45" s="81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="61"/>
       <c r="D45" s="82"/>
@@ -7370,16 +7399,16 @@
     </row>
     <row r="46" customFormat="false" ht="168" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="39"/>
       <c r="E46" s="37"/>
       <c r="F46" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G46" s="83"/>
       <c r="H46" s="84"/>
@@ -7459,43 +7488,43 @@
     <row r="47" customFormat="false" ht="120.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44"/>
       <c r="B47" s="85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="39"/>
       <c r="E48" s="37"/>
       <c r="F48" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="39"/>
       <c r="E49" s="37"/>
       <c r="F49" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G49" s="87"/>
       <c r="H49" s="87"/>
@@ -7574,24 +7603,24 @@
     </row>
     <row r="50" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C50" s="61"/>
       <c r="D50" s="89"/>
       <c r="E50" s="37"/>
       <c r="F50" s="52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="61"/>
       <c r="D51" s="39"/>
@@ -7600,26 +7629,26 @@
     </row>
     <row r="52" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" s="68"/>
       <c r="D52" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F52" s="46"/>
     </row>
     <row r="53" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="39"/>
@@ -7628,30 +7657,30 @@
     </row>
     <row r="54" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" s="61"/>
       <c r="D54" s="89"/>
       <c r="E54" s="37"/>
       <c r="F54" s="90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" s="17" customFormat="true" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="39"/>
       <c r="E55" s="37"/>
       <c r="F55" s="52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="43"/>
@@ -7730,7 +7759,7 @@
     </row>
     <row r="56" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -7818,13 +7847,13 @@
         <v>5</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>9</v>
@@ -7832,22 +7861,22 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B58" s="93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="94"/>
       <c r="E58" s="37"/>
       <c r="F58" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="92"/>
       <c r="B59" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="94"/>
@@ -7857,7 +7886,7 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="92"/>
       <c r="B60" s="37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="94"/>
@@ -7867,7 +7896,7 @@
     <row r="61" s="6" customFormat="true" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="92"/>
       <c r="B61" s="95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="37"/>
@@ -7877,73 +7906,73 @@
     <row r="62" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="92"/>
       <c r="B62" s="95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="70"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="92"/>
       <c r="B63" s="95" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="96"/>
       <c r="E63" s="37"/>
       <c r="F63" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="92"/>
       <c r="B64" s="95" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
       <c r="F64" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="92"/>
       <c r="B65" s="95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="96"/>
       <c r="E65" s="37"/>
       <c r="F65" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="92"/>
       <c r="B66" s="95" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="92"/>
       <c r="B67" s="95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="61"/>
       <c r="D67" s="37"/>
@@ -7952,14 +7981,14 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="98"/>
       <c r="D68" s="51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="99"/>
@@ -7967,11 +7996,11 @@
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="78"/>
       <c r="B69" s="93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="98"/>
       <c r="D69" s="51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="99"/>
@@ -7979,13 +8008,15 @@
     <row r="70" s="17" customFormat="true" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="78"/>
       <c r="B70" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" s="65"/>
       <c r="D70" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="53"/>
+        <v>165</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="F70" s="99"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
@@ -8064,7 +8095,7 @@
     </row>
     <row r="71" s="17" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -8148,19 +8179,19 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="101" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B72" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" s="102" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F72" s="54" t="s">
         <v>9</v>
@@ -8243,15 +8274,17 @@
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="101"/>
       <c r="B73" s="37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="53"/>
+        <v>170</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>17</v>
+      </c>
       <c r="F73" s="104" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G73" s="84"/>
       <c r="H73" s="84"/>
@@ -8331,7 +8364,7 @@
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="101"/>
       <c r="B74" s="37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="96"/>
@@ -8415,13 +8448,15 @@
     <row r="75" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="101"/>
       <c r="B75" s="105" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="105"/>
+        <v>174</v>
+      </c>
+      <c r="E75" s="105" t="s">
+        <v>175</v>
+      </c>
       <c r="F75" s="104"/>
       <c r="G75" s="84"/>
       <c r="H75" s="84"/>
@@ -8501,7 +8536,7 @@
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="101"/>
       <c r="B76" s="37" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="106"/>
@@ -8585,7 +8620,7 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="101"/>
       <c r="B77" s="37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C77" s="40"/>
       <c r="D77" s="106"/>
@@ -8669,11 +8704,11 @@
     <row r="78" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="101"/>
       <c r="B78" s="86" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C78" s="68"/>
       <c r="D78" s="37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="104"/>
@@ -8752,16 +8787,18 @@
       <c r="CA78" s="84"/>
       <c r="CB78" s="84"/>
     </row>
-    <row r="79" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="101"/>
       <c r="B79" s="47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C79" s="68"/>
       <c r="D79" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="37"/>
+        <v>181</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>182</v>
+      </c>
       <c r="F79" s="104"/>
       <c r="G79" s="84"/>
       <c r="H79" s="84"/>
@@ -8840,10 +8877,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="88" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B80" s="107" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C80" s="108"/>
       <c r="D80" s="37"/>
@@ -8927,7 +8964,7 @@
     <row r="81" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="88"/>
       <c r="B81" s="110" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C81" s="108"/>
       <c r="D81" s="37"/>
@@ -9011,31 +9048,31 @@
     <row r="82" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="88"/>
       <c r="B82" s="112" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C82" s="61"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
       <c r="F82" s="109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="88"/>
       <c r="B83" s="31" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C83" s="61"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
       <c r="F83" s="113" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="88"/>
       <c r="B84" s="31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C84" s="61"/>
       <c r="D84" s="37"/>
@@ -9045,7 +9082,7 @@
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="88"/>
       <c r="B85" s="31" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C85" s="72"/>
       <c r="D85" s="37"/>
@@ -9055,7 +9092,7 @@
     <row r="86" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="88"/>
       <c r="B86" s="31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C86" s="61"/>
       <c r="D86" s="37"/>
@@ -9064,52 +9101,54 @@
     </row>
     <row r="87" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="62" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B87" s="86" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C87" s="68"/>
       <c r="D87" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E87" s="37"/>
+        <v>195</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="F87" s="59" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C88" s="61"/>
       <c r="D88" s="94"/>
       <c r="E88" s="37"/>
       <c r="F88" s="115" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="62" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C89" s="61"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
       <c r="F89" s="59" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="62"/>
       <c r="B90" s="86" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C90" s="61"/>
       <c r="D90" s="37"/>
@@ -9118,50 +9157,50 @@
     </row>
     <row r="91" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="62" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B91" s="86" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C91" s="61"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
       <c r="F91" s="59" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="62" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C92" s="61"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37"/>
       <c r="F92" s="116" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C93" s="40"/>
       <c r="D93" s="39"/>
       <c r="E93" s="37"/>
       <c r="F93" s="115" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="44"/>
       <c r="B94" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" s="40"/>
       <c r="D94" s="37"/>
@@ -9171,43 +9210,49 @@
     <row r="95" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="44"/>
       <c r="B95" s="53" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C95" s="68"/>
       <c r="D95" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="E95" s="37"/>
+        <v>214</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="F95" s="115"/>
     </row>
     <row r="96" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="44"/>
       <c r="B96" s="95" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C96" s="68"/>
       <c r="D96" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="37"/>
+        <v>215</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>216</v>
+      </c>
       <c r="F96" s="115"/>
     </row>
     <row r="97" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="44"/>
       <c r="B97" s="95" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C97" s="68"/>
       <c r="D97" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E97" s="37"/>
+        <v>218</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="F97" s="115"/>
     </row>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="44"/>
       <c r="B98" s="95" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C98" s="61"/>
       <c r="D98" s="37"/>
@@ -9217,7 +9262,7 @@
     <row r="99" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="44"/>
       <c r="B99" s="95" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C99" s="61"/>
       <c r="D99" s="37"/>
@@ -9227,7 +9272,7 @@
     <row r="100" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="44"/>
       <c r="B100" s="95" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C100" s="61"/>
       <c r="D100" s="37"/>
@@ -9237,7 +9282,7 @@
     <row r="101" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="44"/>
       <c r="B101" s="95" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C101" s="61"/>
       <c r="D101" s="37"/>
@@ -9246,10 +9291,10 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B102" s="97" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C102" s="40"/>
       <c r="D102" s="103"/>
@@ -9259,7 +9304,7 @@
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="44"/>
       <c r="B103" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C103" s="40"/>
       <c r="D103" s="117"/>
@@ -9269,7 +9314,7 @@
     <row r="104" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="44"/>
       <c r="B104" s="53" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="117"/>
@@ -9279,31 +9324,35 @@
     <row r="105" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="44"/>
       <c r="B105" s="95" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C105" s="68"/>
       <c r="D105" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" s="37"/>
+        <v>226</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>227</v>
+      </c>
       <c r="F105" s="46"/>
     </row>
     <row r="106" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="44"/>
       <c r="B106" s="95" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C106" s="118"/>
       <c r="D106" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" s="37"/>
+        <v>228</v>
+      </c>
+      <c r="E106" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="F106" s="46"/>
     </row>
     <row r="107" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="44"/>
       <c r="B107" s="95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C107" s="61"/>
       <c r="D107" s="103"/>
@@ -9313,7 +9362,7 @@
     <row r="108" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="44"/>
       <c r="B108" s="95" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C108" s="61"/>
       <c r="D108" s="103"/>
@@ -9323,7 +9372,7 @@
     <row r="109" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="44"/>
       <c r="B109" s="95" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C109" s="61"/>
       <c r="D109" s="103"/>
@@ -9333,7 +9382,7 @@
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="44"/>
       <c r="B110" s="95" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C110" s="61"/>
       <c r="D110" s="103"/>
@@ -9343,7 +9392,7 @@
     <row r="111" s="17" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="44"/>
       <c r="B111" s="31" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C111" s="61"/>
       <c r="D111" s="103"/>
@@ -9426,7 +9475,7 @@
     </row>
     <row r="112" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -9514,13 +9563,13 @@
         <v>5</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D113" s="119" t="s">
         <v>7</v>
       </c>
       <c r="E113" s="120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F113" s="19" t="s">
         <v>9</v>
@@ -9528,10 +9577,10 @@
     </row>
     <row r="114" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="44" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C114" s="40"/>
       <c r="D114" s="37"/>
@@ -9540,38 +9589,38 @@
     </row>
     <row r="115" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="44" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B115" s="95" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C115" s="40"/>
       <c r="D115" s="96"/>
       <c r="E115" s="37"/>
       <c r="F115" s="49" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="44" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B116" s="121" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C116" s="40"/>
       <c r="D116" s="122"/>
       <c r="E116" s="121"/>
       <c r="F116" s="123" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="44" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C117" s="40"/>
       <c r="D117" s="121"/>
@@ -9580,10 +9629,10 @@
     </row>
     <row r="118" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="44" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C118" s="40"/>
       <c r="D118" s="121"/>
@@ -9592,37 +9641,37 @@
     </row>
     <row r="119" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="44" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C119" s="68"/>
       <c r="D119" s="39" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E119" s="121" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F119" s="124"/>
     </row>
     <row r="120" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="44" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C120" s="40"/>
       <c r="D120" s="121"/>
       <c r="E120" s="121"/>
       <c r="F120" s="124" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="16" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -9636,13 +9685,13 @@
         <v>5</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D122" s="119" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F122" s="19" t="s">
         <v>9</v>
@@ -9650,35 +9699,35 @@
     </row>
     <row r="123" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="67" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B123" s="125" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C123" s="40"/>
       <c r="D123" s="96"/>
       <c r="E123" s="121"/>
       <c r="F123" s="52" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="44" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B124" s="126" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C124" s="61"/>
       <c r="D124" s="48"/>
       <c r="E124" s="121"/>
       <c r="F124" s="52" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="16" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -9688,30 +9737,32 @@
     </row>
     <row r="126" s="43" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="44" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C126" s="29"/>
       <c r="D126" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="E126" s="94"/>
+        <v>260</v>
+      </c>
+      <c r="E126" s="94" t="s">
+        <v>261</v>
+      </c>
       <c r="F126" s="124"/>
     </row>
     <row r="127" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="88" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B127" s="127" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C127" s="61"/>
       <c r="D127" s="128"/>
       <c r="E127" s="94"/>
       <c r="F127" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16525,14 +16576,14 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="133" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -16542,16 +16593,16 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="133"/>
       <c r="B2" s="135" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D2" s="135" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E2" s="135" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16660,7 +16711,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="133" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="134"/>
@@ -16670,16 +16721,16 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="133"/>
       <c r="B14" s="135" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C14" s="135" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Zanin_FT24_Compliance_R1.xlsx
+++ b/Zanin_FT24_Compliance_R1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="271">
   <si>
     <r>
       <rPr>
@@ -5616,8 +5616,8 @@
   </sheetPr>
   <dimension ref="A1:CB1081"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8710,7 +8710,9 @@
       <c r="D78" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="37"/>
+      <c r="E78" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="F78" s="104"/>
       <c r="G78" s="84"/>
       <c r="H78" s="84"/>
@@ -16572,7 +16574,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
